--- a/Build/bin/result/performance&&accuracy.xlsx
+++ b/Build/bin/result/performance&&accuracy.xlsx
@@ -16,8 +16,213 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="O24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+近似最大值，
+比最大值小0.1%</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+相对上一轮，准确率略微倒退0.27%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+相对上一轮，准确率略微倒退0.76%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+准确率超过50%，反复训练22轮</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J58" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+Sixthlab:
+近似最大值，
+比最大值小0.03%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N61" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+准确率反而降低</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R64" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+最高</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
   <si>
     <t>accuracy</t>
   </si>
@@ -219,7 +424,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>x</t>
+    <t>accuracy val(%)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -239,7 +444,7 @@
     <numFmt numFmtId="180" formatCode="0.00000"/>
     <numFmt numFmtId="181" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,16 +513,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -353,6 +579,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -361,7 +598,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -482,6 +719,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -634,11 +895,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="639376384"/>
-        <c:axId val="627161280"/>
+        <c:axId val="628775936"/>
+        <c:axId val="612612288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="639376384"/>
+        <c:axId val="628775936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -648,7 +909,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="627161280"/>
+        <c:crossAx val="612612288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -656,7 +917,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="627161280"/>
+        <c:axId val="612612288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -667,7 +928,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="639376384"/>
+        <c:crossAx val="628775936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1005,11 +1266,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Q58"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="H10" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1232,10 +1493,10 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="6"/>
-      <c r="O24">
+      <c r="O24" s="32">
         <v>57.206000000000003</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="32">
         <v>310</v>
       </c>
       <c r="Q24">
@@ -1313,7 +1574,7 @@
       <c r="O26" s="32">
         <v>57.249899999999997</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="32">
         <v>312</v>
       </c>
       <c r="Q26">
@@ -1826,6 +2087,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -1852,11 +2114,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:X68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="N59" sqref="N59"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1868,6 +2130,12 @@
     <col min="9" max="9" width="2.875" customWidth="1"/>
     <col min="10" max="10" width="17.375" customWidth="1"/>
     <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="14" max="14" width="17.625" customWidth="1"/>
+    <col min="15" max="15" width="14.75" customWidth="1"/>
+    <col min="18" max="18" width="17.75" customWidth="1"/>
+    <col min="19" max="19" width="15.125" customWidth="1"/>
+    <col min="22" max="22" width="19.625" customWidth="1"/>
+    <col min="23" max="23" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
@@ -2431,7 +2699,7 @@
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="G32" s="13"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B33" s="3" t="s">
         <v>10</v>
       </c>
@@ -2451,7 +2719,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B34" s="3">
         <v>0</v>
       </c>
@@ -2468,7 +2736,7 @@
       <c r="K34" s="46"/>
       <c r="L34" s="46"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B35" s="2">
         <v>12</v>
       </c>
@@ -2491,7 +2759,7 @@
         <v>2.8464100000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B36" s="2">
         <v>14</v>
       </c>
@@ -2514,7 +2782,7 @@
         <v>2.78389</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B37" s="2">
         <v>16</v>
       </c>
@@ -2538,7 +2806,7 @@
       </c>
       <c r="J37" s="32"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B38" s="2">
         <v>18</v>
       </c>
@@ -2561,8 +2829,8 @@
         <v>2.6981299999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B39" s="2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B39" s="50">
         <v>20</v>
       </c>
       <c r="C39" s="2">
@@ -2584,11 +2852,8 @@
         <v>2.7401399999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="2">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B40" s="49">
         <v>22</v>
       </c>
       <c r="C40" s="2">
@@ -2599,18 +2864,18 @@
         <f t="shared" ref="D40:D43" si="24">B40*1.5</f>
         <v>33</v>
       </c>
-      <c r="E40" s="43">
-        <v>0.39848</v>
+      <c r="E40" s="48">
+        <v>0.50473999999999997</v>
       </c>
       <c r="F40" s="17">
         <f t="shared" ref="F40:F49" si="25">B40*5</f>
         <v>110</v>
       </c>
       <c r="G40" s="36">
-        <v>2.7401399999999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+        <v>2.1722299999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B41" s="2">
         <v>24</v>
       </c>
@@ -2623,17 +2888,17 @@
         <v>36</v>
       </c>
       <c r="E41" s="43">
-        <v>0.39848</v>
+        <v>0.51851999999999998</v>
       </c>
       <c r="F41" s="17">
         <f t="shared" si="25"/>
         <v>120</v>
       </c>
       <c r="G41" s="36">
-        <v>2.7401399999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+        <v>2.0891799999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B42" s="2">
         <v>26</v>
       </c>
@@ -2646,18 +2911,18 @@
         <v>39</v>
       </c>
       <c r="E42" s="43">
-        <v>0.39848</v>
+        <v>0.52849999999999997</v>
       </c>
       <c r="F42" s="17">
         <f t="shared" si="25"/>
         <v>130</v>
       </c>
       <c r="G42" s="36">
-        <v>2.7401399999999998</v>
+        <v>2.0419299999999998</v>
       </c>
       <c r="J42" s="32"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B43" s="2">
         <v>28</v>
       </c>
@@ -2670,17 +2935,17 @@
         <v>42</v>
       </c>
       <c r="E43" s="43">
-        <v>0.39848</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="F43" s="44">
         <f t="shared" si="25"/>
         <v>140</v>
       </c>
       <c r="G43" s="36">
-        <v>2.7401399999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+        <v>2.00434</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B44" s="2">
         <v>30</v>
       </c>
@@ -2693,17 +2958,17 @@
         <v>45</v>
       </c>
       <c r="E44" s="43">
-        <v>0.39848</v>
+        <v>0.54454000000000002</v>
       </c>
       <c r="F44" s="17">
         <f t="shared" si="25"/>
         <v>150</v>
       </c>
       <c r="G44" s="36">
-        <v>2.7401399999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+        <v>1.96149</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B45" s="2">
         <v>32</v>
       </c>
@@ -2716,17 +2981,17 @@
         <v>48</v>
       </c>
       <c r="E45" s="43">
-        <v>0.39848</v>
+        <v>0.54713999999999996</v>
       </c>
       <c r="F45" s="17">
         <f t="shared" si="25"/>
         <v>160</v>
       </c>
       <c r="G45" s="36">
-        <v>2.7401399999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+        <v>1.9542299999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B46" s="2">
         <v>34</v>
       </c>
@@ -2739,17 +3004,17 @@
         <v>51</v>
       </c>
       <c r="E46" s="43">
-        <v>0.39848</v>
+        <v>0.54915999999999998</v>
       </c>
       <c r="F46" s="17">
         <f t="shared" si="25"/>
         <v>170</v>
       </c>
       <c r="G46" s="36">
-        <v>2.7401399999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+        <v>1.93865</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B47" s="2">
         <v>36</v>
       </c>
@@ -2762,18 +3027,18 @@
         <v>54</v>
       </c>
       <c r="E47" s="43">
-        <v>0.39848</v>
+        <v>0.54966000000000004</v>
       </c>
       <c r="F47" s="17">
         <f t="shared" si="25"/>
         <v>180</v>
       </c>
       <c r="G47" s="36">
-        <v>2.7401399999999998</v>
+        <v>1.9312</v>
       </c>
       <c r="J47" s="32"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B48" s="2">
         <v>38</v>
       </c>
@@ -2786,17 +3051,17 @@
         <v>57</v>
       </c>
       <c r="E48" s="43">
-        <v>0.39848</v>
+        <v>0.55083899999999997</v>
       </c>
       <c r="F48" s="44">
         <f t="shared" si="25"/>
         <v>190</v>
       </c>
       <c r="G48" s="36">
-        <v>2.7401399999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1.9343300000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B49" s="2">
         <v>40</v>
       </c>
@@ -2809,20 +3074,20 @@
         <v>60</v>
       </c>
       <c r="E49" s="43">
-        <v>0.39848</v>
+        <v>0.56677999999999995</v>
       </c>
       <c r="F49" s="17">
         <f t="shared" si="25"/>
         <v>200</v>
       </c>
       <c r="G49" s="36">
-        <v>2.7401399999999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.86063</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G51" s="13"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>10</v>
       </c>
@@ -2842,7 +3107,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B55" s="3">
         <v>0</v>
       </c>
@@ -2859,15 +3124,12 @@
       <c r="K55" s="46"/>
       <c r="L55" s="46"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>50</v>
-      </c>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B56" s="2">
         <v>50</v>
       </c>
       <c r="C56" s="2">
-        <f t="shared" ref="C56:C66" si="27">B56*1.28</f>
+        <f t="shared" ref="C56:C63" si="27">B56*1.28</f>
         <v>64</v>
       </c>
       <c r="D56" s="2">
@@ -2875,14 +3137,14 @@
         <v>75</v>
       </c>
       <c r="E56" s="43">
-        <v>0.28910000000000002</v>
+        <v>0.57091999999999998</v>
       </c>
       <c r="F56" s="17">
-        <f t="shared" ref="F56:F66" si="29">B56*5</f>
+        <f t="shared" ref="F56:F63" si="29">B56*5</f>
         <v>250</v>
       </c>
       <c r="G56" s="36">
-        <v>3.40042</v>
+        <v>1.8409500000000001</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>34</v>
@@ -2893,8 +3155,35 @@
       <c r="L56" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N56" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P56" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R56" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S56" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T56" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V56" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W56" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="X56" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B57" s="2">
         <v>60</v>
       </c>
@@ -2907,26 +3196,53 @@
         <v>90</v>
       </c>
       <c r="E57" s="43">
-        <v>0.28910000000000002</v>
+        <v>0.57269999999999999</v>
       </c>
       <c r="F57" s="17">
         <f t="shared" si="29"/>
         <v>300</v>
       </c>
       <c r="G57" s="36">
-        <v>3.40042</v>
-      </c>
-      <c r="K57">
+        <v>1.8336300000000001</v>
+      </c>
+      <c r="J57" s="43">
+        <v>0.57269999999999999</v>
+      </c>
+      <c r="K57" s="6">
         <v>300</v>
       </c>
-      <c r="L57">
-        <v>1.8454900000000001</v>
-      </c>
-      <c r="M57" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L57" s="36">
+        <v>1.8336300000000001</v>
+      </c>
+      <c r="N57" s="43">
+        <v>0.56677999999999995</v>
+      </c>
+      <c r="O57" s="6">
+        <v>210</v>
+      </c>
+      <c r="P57" s="36">
+        <v>1.86063</v>
+      </c>
+      <c r="R57" s="43">
+        <v>0.57416</v>
+      </c>
+      <c r="S57" s="6">
+        <v>310</v>
+      </c>
+      <c r="T57" s="6">
+        <v>1.82498</v>
+      </c>
+      <c r="V57" s="43">
+        <v>0.57453900000000002</v>
+      </c>
+      <c r="W57" s="6">
+        <v>410</v>
+      </c>
+      <c r="X57" s="6">
+        <v>1.8196099999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B58" s="2">
         <v>70</v>
       </c>
@@ -2939,23 +3255,53 @@
         <v>105</v>
       </c>
       <c r="E58" s="43">
-        <v>0.28910000000000002</v>
+        <v>0.57416</v>
       </c>
       <c r="F58" s="17">
         <f t="shared" si="29"/>
         <v>350</v>
       </c>
       <c r="G58" s="36">
-        <v>3.40042</v>
-      </c>
-      <c r="K58">
+        <v>1.8224499999999999</v>
+      </c>
+      <c r="J58" s="39">
+        <v>0.57416</v>
+      </c>
+      <c r="K58" s="54">
         <v>310</v>
       </c>
-      <c r="L58">
-        <v>1.83439</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L58" s="6">
+        <v>1.82498</v>
+      </c>
+      <c r="N58" s="43">
+        <v>0.56762000000000001</v>
+      </c>
+      <c r="O58" s="56">
+        <v>220</v>
+      </c>
+      <c r="P58" s="6">
+        <v>1.8556600000000001</v>
+      </c>
+      <c r="R58" s="43">
+        <v>0.57379999999999998</v>
+      </c>
+      <c r="S58" s="56">
+        <v>320</v>
+      </c>
+      <c r="T58" s="6">
+        <v>1.82362</v>
+      </c>
+      <c r="V58" s="43">
+        <v>0.57449899999999998</v>
+      </c>
+      <c r="W58" s="56">
+        <v>420</v>
+      </c>
+      <c r="X58" s="6">
+        <v>1.8196399999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B59" s="2">
         <v>80</v>
       </c>
@@ -2968,23 +3314,53 @@
         <v>120</v>
       </c>
       <c r="E59" s="43">
-        <v>0.28910000000000002</v>
+        <v>0.57433999999999996</v>
       </c>
       <c r="F59" s="44">
         <f t="shared" si="29"/>
         <v>400</v>
       </c>
       <c r="G59" s="36">
-        <v>3.40042</v>
-      </c>
-      <c r="K59">
+        <v>1.8207599999999999</v>
+      </c>
+      <c r="J59" s="39">
+        <v>0.57441900000000001</v>
+      </c>
+      <c r="K59" s="54">
         <v>311</v>
       </c>
-      <c r="L59">
-        <v>1.83256</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L59" s="6">
+        <v>1.82236</v>
+      </c>
+      <c r="N59" s="43">
+        <v>0.56786000000000003</v>
+      </c>
+      <c r="O59" s="56">
+        <v>230</v>
+      </c>
+      <c r="P59" s="6">
+        <v>1.8530199999999999</v>
+      </c>
+      <c r="R59" s="43">
+        <v>0.57447999999999999</v>
+      </c>
+      <c r="S59" s="56">
+        <v>330</v>
+      </c>
+      <c r="T59" s="6">
+        <v>1.8230200000000001</v>
+      </c>
+      <c r="V59" s="39">
+        <v>0.57479899999999995</v>
+      </c>
+      <c r="W59" s="56">
+        <v>430</v>
+      </c>
+      <c r="X59" s="6">
+        <v>1.8195399999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B60" s="2">
         <v>90</v>
       </c>
@@ -2997,24 +3373,53 @@
         <v>135</v>
       </c>
       <c r="E60" s="43">
-        <v>0.28910000000000002</v>
+        <v>0.57433999999999996</v>
       </c>
       <c r="F60" s="17">
         <f t="shared" si="29"/>
         <v>450</v>
       </c>
       <c r="G60" s="36">
-        <v>3.40042</v>
-      </c>
-      <c r="J60" s="32"/>
-      <c r="K60">
+        <v>1.8192200000000001</v>
+      </c>
+      <c r="J60" s="43">
+        <v>0.57376000000000005</v>
+      </c>
+      <c r="K60" s="6">
         <v>312</v>
       </c>
-      <c r="L60">
-        <v>1.8314299999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L60" s="6">
+        <v>1.8215699999999999</v>
+      </c>
+      <c r="N60" s="43">
+        <v>0.57376000000000005</v>
+      </c>
+      <c r="O60" s="6">
+        <v>240</v>
+      </c>
+      <c r="P60" s="6">
+        <v>1.8215699999999999</v>
+      </c>
+      <c r="R60" s="43">
+        <v>0.57411900000000005</v>
+      </c>
+      <c r="S60" s="6">
+        <v>340</v>
+      </c>
+      <c r="T60" s="6">
+        <v>1.82202</v>
+      </c>
+      <c r="V60" s="43">
+        <v>0.57459899999999997</v>
+      </c>
+      <c r="W60" s="6">
+        <v>440</v>
+      </c>
+      <c r="X60" s="6">
+        <v>1.8192200000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B61" s="2">
         <v>100</v>
       </c>
@@ -3023,27 +3428,60 @@
         <v>128</v>
       </c>
       <c r="D61" s="2">
-        <f t="shared" ref="D61:D64" si="30">B61*1.5</f>
+        <f t="shared" ref="D61:D63" si="30">B61*1.5</f>
         <v>150</v>
       </c>
       <c r="E61" s="43">
-        <v>0.28910000000000002</v>
+        <v>0.574739</v>
       </c>
       <c r="F61" s="17">
         <f t="shared" si="29"/>
         <v>500</v>
       </c>
       <c r="G61" s="36">
-        <v>3.40042</v>
-      </c>
-      <c r="K61">
+        <v>1.8190200000000001</v>
+      </c>
+      <c r="J61" s="43">
+        <v>0.57391999999999999</v>
+      </c>
+      <c r="K61" s="6">
         <v>313</v>
       </c>
-      <c r="L61">
-        <v>1.8319099999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L61" s="6">
+        <v>1.8218300000000001</v>
+      </c>
+      <c r="N61" s="39">
+        <v>0.57091999999999998</v>
+      </c>
+      <c r="O61" s="6">
+        <v>260</v>
+      </c>
+      <c r="P61" s="6">
+        <v>1.8409500000000001</v>
+      </c>
+      <c r="R61" s="57">
+        <v>0.57453900000000002</v>
+      </c>
+      <c r="S61" s="6">
+        <v>360</v>
+      </c>
+      <c r="T61" s="6">
+        <v>1.82256</v>
+      </c>
+      <c r="V61" s="43">
+        <v>0.574519</v>
+      </c>
+      <c r="W61" s="6">
+        <v>460</v>
+      </c>
+      <c r="X61" s="55">
+        <v>1.8192999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>51</v>
+      </c>
       <c r="B62" s="2">
         <v>110</v>
       </c>
@@ -3056,23 +3494,53 @@
         <v>165</v>
       </c>
       <c r="E62" s="43">
-        <v>0.28910000000000002</v>
+        <v>0.57416</v>
       </c>
       <c r="F62" s="17">
         <f t="shared" si="29"/>
         <v>550</v>
       </c>
       <c r="G62" s="36">
-        <v>3.40042</v>
-      </c>
-      <c r="K62">
+        <v>1.8224499999999999</v>
+      </c>
+      <c r="J62" s="43">
+        <v>0.57430000000000003</v>
+      </c>
+      <c r="K62" s="6">
         <v>314</v>
       </c>
-      <c r="L62">
-        <v>1.83328</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L62" s="55">
+        <v>1.8242</v>
+      </c>
+      <c r="N62" s="39">
+        <v>0.569859</v>
+      </c>
+      <c r="O62" s="56">
+        <v>270</v>
+      </c>
+      <c r="P62" s="55">
+        <v>1.8410899999999999</v>
+      </c>
+      <c r="R62" s="43">
+        <v>0.57430000000000003</v>
+      </c>
+      <c r="S62" s="56">
+        <v>370</v>
+      </c>
+      <c r="T62" s="6">
+        <v>1.8218300000000001</v>
+      </c>
+      <c r="V62" s="43">
+        <v>0.57443900000000003</v>
+      </c>
+      <c r="W62" s="56">
+        <v>470</v>
+      </c>
+      <c r="X62" s="6">
+        <v>1.8191900000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B63" s="2">
         <v>120</v>
       </c>
@@ -3085,102 +3553,109 @@
         <v>180</v>
       </c>
       <c r="E63" s="43">
-        <v>0.28910000000000002</v>
+        <v>0.57416</v>
       </c>
       <c r="F63" s="17">
         <f t="shared" si="29"/>
         <v>600</v>
       </c>
       <c r="G63" s="36">
-        <v>3.40042</v>
-      </c>
-      <c r="K63">
+        <v>1.8224499999999999</v>
+      </c>
+      <c r="J63" s="43">
+        <v>0.57398000000000005</v>
+      </c>
+      <c r="K63" s="6">
         <v>315</v>
       </c>
-      <c r="L63">
-        <v>1.83382</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B64" s="2">
-        <v>130</v>
-      </c>
-      <c r="C64" s="2">
-        <f t="shared" si="27"/>
-        <v>166.4</v>
-      </c>
-      <c r="D64" s="2">
-        <f t="shared" si="30"/>
-        <v>195</v>
-      </c>
-      <c r="E64" s="43">
-        <v>0.28910000000000002</v>
-      </c>
-      <c r="F64" s="44">
-        <f t="shared" si="29"/>
-        <v>650</v>
-      </c>
-      <c r="G64" s="36">
-        <v>3.40042</v>
-      </c>
-      <c r="K64">
-        <v>316</v>
-      </c>
-      <c r="L64">
-        <v>1.8326499999999999</v>
+      <c r="L63" s="6">
+        <v>1.8241499999999999</v>
+      </c>
+      <c r="N63" s="39">
+        <v>0.57277900000000004</v>
+      </c>
+      <c r="O63" s="56">
+        <v>280</v>
+      </c>
+      <c r="P63" s="6">
+        <v>1.83405</v>
+      </c>
+      <c r="R63" s="43">
+        <v>0.57407900000000001</v>
+      </c>
+      <c r="S63" s="56">
+        <v>380</v>
+      </c>
+      <c r="T63" s="6">
+        <v>1.8216699999999999</v>
+      </c>
+      <c r="U63" s="28"/>
+      <c r="V63" s="43">
+        <v>0.57461899999999999</v>
+      </c>
+      <c r="W63" s="56">
+        <v>480</v>
+      </c>
+      <c r="X63" s="6">
+        <v>1.8191600000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="53"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="N64" s="39">
+        <v>0.57257899999999995</v>
+      </c>
+      <c r="O64" s="6">
+        <v>290</v>
+      </c>
+      <c r="P64" s="6">
+        <v>1.83188</v>
+      </c>
+      <c r="R64" s="39">
+        <v>0.57494000000000001</v>
+      </c>
+      <c r="S64" s="6">
+        <v>390</v>
+      </c>
+      <c r="T64" s="6">
+        <v>1.8217699999999999</v>
+      </c>
+      <c r="V64" s="43">
+        <v>0.57423900000000005</v>
+      </c>
+      <c r="W64" s="6">
+        <v>490</v>
+      </c>
+      <c r="X64" s="55">
+        <v>1.8191999999999999</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B65" s="2">
-        <v>140</v>
-      </c>
-      <c r="C65" s="2">
-        <f t="shared" si="27"/>
-        <v>179.20000000000002</v>
-      </c>
-      <c r="D65" s="2">
-        <f>B65*1.5</f>
-        <v>210</v>
-      </c>
-      <c r="E65" s="43">
-        <v>0.28910000000000002</v>
-      </c>
-      <c r="F65" s="17">
-        <f t="shared" si="29"/>
-        <v>700</v>
-      </c>
-      <c r="G65" s="36">
-        <v>3.40042</v>
-      </c>
-      <c r="K65">
-        <v>317</v>
-      </c>
-      <c r="L65">
-        <v>1.8315300000000001</v>
-      </c>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="53"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B66" s="2">
-        <v>150</v>
-      </c>
-      <c r="C66" s="2">
-        <f t="shared" si="27"/>
-        <v>192</v>
-      </c>
-      <c r="D66" s="2">
-        <f t="shared" ref="D66" si="31">B66*1.5</f>
-        <v>225</v>
-      </c>
-      <c r="E66" s="43">
-        <v>0.28910000000000002</v>
-      </c>
-      <c r="F66" s="17">
-        <f t="shared" si="29"/>
-        <v>750</v>
-      </c>
-      <c r="G66" s="36">
-        <v>3.40042</v>
-      </c>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="53"/>
     </row>
     <row r="68" spans="2:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G68" s="13"/>
@@ -3189,6 +3664,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -3224,14 +3700,14 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" high="1">
           <x14:colorSeries theme="4" tint="-0.499984740745262"/>
           <x14:colorNegative theme="5"/>
           <x14:colorAxis rgb="FF000000"/>
           <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
           <x14:colorFirst theme="4" tint="0.39997558519241921"/>
           <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
+          <x14:colorHigh rgb="FFFF0000"/>
           <x14:colorLow theme="4"/>
           <x14:sparklines>
             <x14:sparkline>
@@ -3240,7 +3716,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries theme="4" tint="-0.499984740745262"/>
           <x14:colorNegative theme="5"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -3256,7 +3732,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries theme="4" tint="-0.499984740745262"/>
           <x14:colorNegative theme="5"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -3272,14 +3748,14 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" high="1">
           <x14:colorSeries theme="4" tint="-0.499984740745262"/>
           <x14:colorNegative theme="5"/>
           <x14:colorAxis rgb="FF000000"/>
           <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
           <x14:colorFirst theme="4" tint="0.39997558519241921"/>
           <x14:colorLast theme="4" tint="0.39997558519241921"/>
-          <x14:colorHigh theme="4"/>
+          <x14:colorHigh rgb="FFFF0000"/>
           <x14:colorLow theme="4"/>
           <x14:sparklines>
             <x14:sparkline>
